--- a/data/trans_bre/P2404-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2404-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2404-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2404-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,1%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; -0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; -0,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; -1,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,91; -51,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,23; -63,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,15; -65,12</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,09%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; -0,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; -1,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; -1,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,98; -27,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,66; -55,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,34; -47,7</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,01%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,84; 2,36</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 0,45</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 0,87</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-51,15; 353,96</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,63; 173,93</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,99%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; -0,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; -1,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; -1,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,44; -30,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,7; -67,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,53; -55,78</t>
         </is>
       </c>
     </row>
